--- a/typhoon20170613-20170324.xlsx
+++ b/typhoon20170613-20170324.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\30 Tools\dan-workspace\ExcelTool-WithShowPanel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502758724\workspace\Java\ExcelTool-WithShowPanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="0" windowWidth="24000" windowHeight="9210" activeTab="2"/>
+    <workbookView xWindow="20295" yWindow="0" windowWidth="24000" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cancelled-flights" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="304">
   <si>
     <t>Flt</t>
   </si>
@@ -850,6 +850,130 @@
   <si>
     <t>B2763</t>
   </si>
+  <si>
+    <t>B5595</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HGH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5655</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5487</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5846</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZUH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5605</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5433</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YCU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1966</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5388</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +983,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="hhmm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,7 +1515,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,6 +1548,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,22 +1917,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I247"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1"/>
-    <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
+    <col min="7" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1827,33 +1959,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="9">
-        <v>801</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="10">
-        <v>42818.572916666664</v>
-      </c>
-      <c r="G2" s="11">
-        <v>42818.572916666664</v>
-      </c>
-      <c r="H2" s="11">
-        <v>42818.96875</v>
-      </c>
-      <c r="I2" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="12" customFormat="1">
+      <c r="B2" s="13">
+        <v>8534</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="14">
+        <v>42820.371527777781</v>
+      </c>
+      <c r="G2" s="15">
+        <v>42820.371527777781</v>
+      </c>
+      <c r="H2" s="15">
+        <v>42820.444444444445</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="9">
         <v>803</v>
       </c>
@@ -1879,7 +2011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="B4" s="9">
         <v>804</v>
       </c>
@@ -1905,7 +2037,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5" s="9">
         <v>808</v>
       </c>
@@ -1931,7 +2063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6" s="9">
         <v>809</v>
       </c>
@@ -1957,7 +2089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="B7" s="9">
         <v>810</v>
       </c>
@@ -1983,7 +2115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="B8" s="9">
         <v>811</v>
       </c>
@@ -2009,7 +2141,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="B9" s="9">
         <v>812</v>
       </c>
@@ -2035,7 +2167,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="B10" s="9">
         <v>817</v>
       </c>
@@ -2061,7 +2193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="B11" s="9">
         <v>818</v>
       </c>
@@ -2087,33 +2219,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>819</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="10">
-        <v>42818.413194444445</v>
-      </c>
-      <c r="G12" s="11">
-        <v>42818.413194444445</v>
-      </c>
-      <c r="H12" s="11">
-        <v>42818.513888888891</v>
-      </c>
-      <c r="I12" s="9">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="12" customFormat="1">
+      <c r="B12" s="13">
+        <v>8533</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="14">
+        <v>42818.069444444445</v>
+      </c>
+      <c r="G12" s="15">
+        <v>42818.069444444445</v>
+      </c>
+      <c r="H12" s="15">
+        <v>42818.15625</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="9">
         <v>820</v>
       </c>
@@ -2139,7 +2271,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="B14" s="9">
         <v>824</v>
       </c>
@@ -2165,7 +2297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="B15" s="9">
         <v>831</v>
       </c>
@@ -2191,33 +2323,33 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>831</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10">
-        <v>42818.395833333336</v>
-      </c>
-      <c r="G16" s="11">
-        <v>42818.395833333336</v>
-      </c>
-      <c r="H16" s="11">
-        <v>42818.579861111109</v>
-      </c>
-      <c r="I16" s="9">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="12" customFormat="1">
+      <c r="B16" s="13">
+        <v>8534</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="14">
+        <v>42818.458333333336</v>
+      </c>
+      <c r="G16" s="15">
+        <v>42818.458333333336</v>
+      </c>
+      <c r="H16" s="15">
+        <v>42818.552083333336</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="9">
         <v>834</v>
       </c>
@@ -2243,7 +2375,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="9">
         <v>852</v>
       </c>
@@ -2269,7 +2401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>852</v>
       </c>
@@ -2295,33 +2427,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>853</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="10">
-        <v>42819.177083333336</v>
-      </c>
-      <c r="G20" s="11">
-        <v>42819.177083333336</v>
-      </c>
-      <c r="H20" s="11">
-        <v>42819.319444444445</v>
-      </c>
-      <c r="I20" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" s="12" customFormat="1">
+      <c r="B20" s="13">
+        <v>8534</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="14">
+        <v>42818.59375</v>
+      </c>
+      <c r="G20" s="15">
+        <v>42818.59375</v>
+      </c>
+      <c r="H20" s="15">
+        <v>42818.652777777781</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="9">
         <v>854</v>
       </c>
@@ -2347,7 +2479,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="B22" s="9">
         <v>854</v>
       </c>
@@ -2373,7 +2505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="B23" s="9">
         <v>855</v>
       </c>
@@ -2399,7 +2531,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" s="9">
         <v>855</v>
       </c>
@@ -2425,7 +2557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9">
       <c r="B25" s="9">
         <v>861</v>
       </c>
@@ -2451,7 +2583,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9">
       <c r="B26" s="9">
         <v>862</v>
       </c>
@@ -2477,7 +2609,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9">
       <c r="B27" s="9">
         <v>866</v>
       </c>
@@ -2503,7 +2635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9">
       <c r="B28" s="9">
         <v>868</v>
       </c>
@@ -2529,7 +2661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9">
       <c r="B29" s="9">
         <v>868</v>
       </c>
@@ -2555,33 +2687,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
-        <v>869</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="10">
-        <v>42818.260416666664</v>
-      </c>
-      <c r="G30" s="11">
-        <v>42818.260416666664</v>
-      </c>
-      <c r="H30" s="11">
-        <v>42818.347222222219</v>
-      </c>
-      <c r="I30" s="9">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" s="12" customFormat="1">
+      <c r="B30" s="13">
+        <v>8562</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="14">
+        <v>42817.194444444445</v>
+      </c>
+      <c r="G30" s="15">
+        <v>42817.194444444445</v>
+      </c>
+      <c r="H30" s="15">
+        <v>42817.305555555555</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="9">
         <v>869</v>
       </c>
@@ -2607,7 +2739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9">
       <c r="B32" s="9">
         <v>875</v>
       </c>
@@ -2633,7 +2765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="9">
         <v>877</v>
       </c>
@@ -2659,7 +2791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" s="9">
         <v>877</v>
       </c>
@@ -2685,7 +2817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="9">
         <v>878</v>
       </c>
@@ -2711,7 +2843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="9">
         <v>878</v>
       </c>
@@ -2737,33 +2869,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
-        <v>881</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="10">
-        <v>42818.381944444445</v>
-      </c>
-      <c r="G37" s="11">
-        <v>42818.381944444445</v>
-      </c>
-      <c r="H37" s="11">
-        <v>42818.447916666664</v>
-      </c>
-      <c r="I37" s="9">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" s="12" customFormat="1">
+      <c r="B37" s="13">
+        <v>8562</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="14">
+        <v>42817.347222222219</v>
+      </c>
+      <c r="G37" s="15">
+        <v>42817.347222222219</v>
+      </c>
+      <c r="H37" s="15">
+        <v>42817.40625</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="9">
         <v>882</v>
       </c>
@@ -2789,7 +2921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9">
       <c r="B39" s="9">
         <v>883</v>
       </c>
@@ -2815,7 +2947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9">
       <c r="B40" s="9">
         <v>884</v>
       </c>
@@ -2841,7 +2973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9">
       <c r="B41" s="9">
         <v>891</v>
       </c>
@@ -2867,7 +2999,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" s="9">
         <v>892</v>
       </c>
@@ -2893,7 +3025,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" s="9">
         <v>897</v>
       </c>
@@ -2919,7 +3051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9">
       <c r="B44" s="9">
         <v>8005</v>
       </c>
@@ -2945,7 +3077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9">
       <c r="B45" s="9">
         <v>8006</v>
       </c>
@@ -2971,7 +3103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9">
       <c r="B46" s="9">
         <v>8015</v>
       </c>
@@ -2997,7 +3129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="B47" s="9">
         <v>8018</v>
       </c>
@@ -3023,7 +3155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="B48" s="9">
         <v>8032</v>
       </c>
@@ -3049,7 +3181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9">
       <c r="B49" s="9">
         <v>8041</v>
       </c>
@@ -3075,7 +3207,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9">
       <c r="B50" s="9">
         <v>8042</v>
       </c>
@@ -3101,7 +3233,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9">
       <c r="B51" s="9">
         <v>8045</v>
       </c>
@@ -3127,7 +3259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9">
       <c r="B52" s="9">
         <v>8050</v>
       </c>
@@ -3153,7 +3285,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9">
       <c r="B53" s="9">
         <v>8052</v>
       </c>
@@ -3179,7 +3311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9">
       <c r="B54" s="9">
         <v>8054</v>
       </c>
@@ -3205,7 +3337,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9">
       <c r="B55" s="9">
         <v>8057</v>
       </c>
@@ -3231,7 +3363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9">
       <c r="B56" s="9">
         <v>8058</v>
       </c>
@@ -3257,7 +3389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9">
       <c r="B57" s="9">
         <v>8059</v>
       </c>
@@ -3283,7 +3415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9">
       <c r="B58" s="9">
         <v>8060</v>
       </c>
@@ -3309,7 +3441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9">
       <c r="B59" s="9">
         <v>8061</v>
       </c>
@@ -3335,7 +3467,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9">
       <c r="B60" s="9">
         <v>8062</v>
       </c>
@@ -3361,7 +3493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61" s="9">
         <v>8069</v>
       </c>
@@ -3387,7 +3519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9">
       <c r="B62" s="9">
         <v>8069</v>
       </c>
@@ -3413,7 +3545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9">
       <c r="B63" s="9">
         <v>8069</v>
       </c>
@@ -3439,7 +3571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9">
       <c r="B64" s="9">
         <v>8070</v>
       </c>
@@ -3465,7 +3597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9">
       <c r="B65" s="9">
         <v>8070</v>
       </c>
@@ -3491,7 +3623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9">
       <c r="B66" s="9">
         <v>8075</v>
       </c>
@@ -3517,7 +3649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9">
       <c r="B67" s="9">
         <v>8076</v>
       </c>
@@ -3543,7 +3675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9">
       <c r="B68" s="9">
         <v>8093</v>
       </c>
@@ -3569,7 +3701,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9">
       <c r="B69" s="9">
         <v>8094</v>
       </c>
@@ -3595,7 +3727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9">
       <c r="B70" s="9">
         <v>8101</v>
       </c>
@@ -3621,7 +3753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9">
       <c r="B71" s="9">
         <v>8101</v>
       </c>
@@ -3647,7 +3779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9">
       <c r="B72" s="9">
         <v>8102</v>
       </c>
@@ -3673,7 +3805,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9">
       <c r="B73" s="9">
         <v>8103</v>
       </c>
@@ -3699,7 +3831,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9">
       <c r="B74" s="9">
         <v>8104</v>
       </c>
@@ -3725,7 +3857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9">
       <c r="B75" s="9">
         <v>8106</v>
       </c>
@@ -3751,7 +3883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9">
       <c r="B76" s="9">
         <v>8106</v>
       </c>
@@ -3777,7 +3909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9">
       <c r="B77" s="9">
         <v>8107</v>
       </c>
@@ -3803,7 +3935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9">
       <c r="B78" s="9">
         <v>8107</v>
       </c>
@@ -3829,7 +3961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9">
       <c r="B79" s="9">
         <v>8108</v>
       </c>
@@ -3855,7 +3987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9">
       <c r="B80" s="9">
         <v>8112</v>
       </c>
@@ -3881,7 +4013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9">
       <c r="B81" s="9">
         <v>8114</v>
       </c>
@@ -3907,7 +4039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9">
       <c r="B82" s="9">
         <v>8115</v>
       </c>
@@ -3933,7 +4065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9">
       <c r="B83" s="9">
         <v>8116</v>
       </c>
@@ -3959,7 +4091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9">
       <c r="B84" s="9">
         <v>8118</v>
       </c>
@@ -3985,7 +4117,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9">
       <c r="B85" s="9">
         <v>8119</v>
       </c>
@@ -4011,7 +4143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9">
       <c r="B86" s="9">
         <v>8120</v>
       </c>
@@ -4037,7 +4169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9">
       <c r="B87" s="9">
         <v>8123</v>
       </c>
@@ -4063,7 +4195,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9">
       <c r="B88" s="9">
         <v>8126</v>
       </c>
@@ -4089,7 +4221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9">
       <c r="B89" s="9">
         <v>8131</v>
       </c>
@@ -4115,7 +4247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9">
       <c r="B90" s="9">
         <v>8133</v>
       </c>
@@ -4141,7 +4273,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9">
       <c r="B91" s="9">
         <v>8139</v>
       </c>
@@ -4167,7 +4299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9">
       <c r="B92" s="9">
         <v>8140</v>
       </c>
@@ -4193,7 +4325,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9">
       <c r="B93" s="9">
         <v>8140</v>
       </c>
@@ -4219,7 +4351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9">
       <c r="B94" s="9">
         <v>8151</v>
       </c>
@@ -4245,7 +4377,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9">
       <c r="B95" s="9">
         <v>8152</v>
       </c>
@@ -4271,7 +4403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9">
       <c r="B96" s="9">
         <v>8154</v>
       </c>
@@ -4297,7 +4429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9">
       <c r="B97" s="9">
         <v>8156</v>
       </c>
@@ -4323,7 +4455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9">
       <c r="B98" s="9">
         <v>8158</v>
       </c>
@@ -4349,7 +4481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9">
       <c r="B99" s="9">
         <v>8159</v>
       </c>
@@ -4375,7 +4507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9">
       <c r="B100" s="9">
         <v>8161</v>
       </c>
@@ -4401,7 +4533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9">
       <c r="B101" s="9">
         <v>8162</v>
       </c>
@@ -4427,7 +4559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102" s="9">
         <v>8166</v>
       </c>
@@ -4453,7 +4585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="B103" s="9">
         <v>8169</v>
       </c>
@@ -4479,7 +4611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9">
       <c r="B104" s="9">
         <v>8171</v>
       </c>
@@ -4505,7 +4637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9">
       <c r="B105" s="9">
         <v>8175</v>
       </c>
@@ -4531,7 +4663,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9">
       <c r="B106" s="9">
         <v>8176</v>
       </c>
@@ -4557,7 +4689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9">
       <c r="B107" s="9">
         <v>8184</v>
       </c>
@@ -4583,7 +4715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9">
       <c r="B108" s="9">
         <v>8185</v>
       </c>
@@ -4609,7 +4741,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9">
       <c r="B109" s="9">
         <v>8186</v>
       </c>
@@ -4635,7 +4767,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="B110" s="9">
         <v>8207</v>
       </c>
@@ -4661,7 +4793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="B111" s="9">
         <v>8210</v>
       </c>
@@ -4687,7 +4819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="B112" s="9">
         <v>8211</v>
       </c>
@@ -4713,7 +4845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9">
       <c r="B113" s="9">
         <v>8212</v>
       </c>
@@ -4739,7 +4871,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9">
       <c r="B114" s="9">
         <v>8216</v>
       </c>
@@ -4765,7 +4897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="9">
         <v>8217</v>
       </c>
@@ -4791,7 +4923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="9">
         <v>8218</v>
       </c>
@@ -4817,7 +4949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="9">
         <v>8221</v>
       </c>
@@ -4843,7 +4975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9">
       <c r="B118" s="9">
         <v>8222</v>
       </c>
@@ -4869,7 +5001,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9">
       <c r="B119" s="9">
         <v>8225</v>
       </c>
@@ -4895,7 +5027,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9">
       <c r="B120" s="9">
         <v>8237</v>
       </c>
@@ -4921,7 +5053,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9">
       <c r="B121" s="9">
         <v>8238</v>
       </c>
@@ -4947,7 +5079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9">
       <c r="B122" s="9">
         <v>8248</v>
       </c>
@@ -4973,7 +5105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9">
       <c r="B123" s="9">
         <v>8250</v>
       </c>
@@ -4999,7 +5131,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="9">
         <v>8253</v>
       </c>
@@ -5025,7 +5157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9">
       <c r="B125" s="9">
         <v>8274</v>
       </c>
@@ -5051,7 +5183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9">
       <c r="B126" s="9">
         <v>8275</v>
       </c>
@@ -5077,7 +5209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="B127" s="9">
         <v>8277</v>
       </c>
@@ -5103,7 +5235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="B128" s="9">
         <v>8295</v>
       </c>
@@ -5129,7 +5261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9">
       <c r="B129" s="9">
         <v>8295</v>
       </c>
@@ -5155,7 +5287,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9">
       <c r="B130" s="9">
         <v>8301</v>
       </c>
@@ -5181,7 +5313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9">
       <c r="B131" s="9">
         <v>8306</v>
       </c>
@@ -5207,7 +5339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9">
       <c r="B132" s="9">
         <v>8307</v>
       </c>
@@ -5233,7 +5365,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9">
       <c r="B133" s="9">
         <v>8308</v>
       </c>
@@ -5259,7 +5391,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9">
       <c r="B134" s="9">
         <v>8323</v>
       </c>
@@ -5285,7 +5417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9">
       <c r="B135" s="9">
         <v>8324</v>
       </c>
@@ -5311,7 +5443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9">
       <c r="B136" s="9">
         <v>8325</v>
       </c>
@@ -5337,7 +5469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9">
       <c r="B137" s="9">
         <v>8331</v>
       </c>
@@ -5363,7 +5495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9">
       <c r="B138" s="9">
         <v>8331</v>
       </c>
@@ -5389,7 +5521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9">
       <c r="B139" s="9">
         <v>8332</v>
       </c>
@@ -5415,7 +5547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9">
       <c r="B140" s="9">
         <v>8332</v>
       </c>
@@ -5441,7 +5573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9">
       <c r="B141" s="9">
         <v>8333</v>
       </c>
@@ -5467,7 +5599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9">
       <c r="B142" s="9">
         <v>8334</v>
       </c>
@@ -5493,7 +5625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9">
       <c r="B143" s="9">
         <v>8339</v>
       </c>
@@ -5519,7 +5651,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9">
       <c r="B144" s="9">
         <v>8339</v>
       </c>
@@ -5545,7 +5677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9">
       <c r="B145" s="9">
         <v>8340</v>
       </c>
@@ -5571,7 +5703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9">
       <c r="B146" s="9">
         <v>8340</v>
       </c>
@@ -5597,7 +5729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9">
       <c r="B147" s="9">
         <v>8342</v>
       </c>
@@ -5623,7 +5755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9">
       <c r="B148" s="9">
         <v>8342</v>
       </c>
@@ -5649,7 +5781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9">
       <c r="B149" s="9">
         <v>8348</v>
       </c>
@@ -5675,7 +5807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9">
       <c r="B150" s="9">
         <v>8359</v>
       </c>
@@ -5701,7 +5833,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9">
       <c r="B151" s="9">
         <v>8360</v>
       </c>
@@ -5727,7 +5859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9">
       <c r="B152" s="9">
         <v>8361</v>
       </c>
@@ -5753,7 +5885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9">
       <c r="B153" s="9">
         <v>8362</v>
       </c>
@@ -5779,7 +5911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9">
       <c r="B154" s="9">
         <v>8367</v>
       </c>
@@ -5805,7 +5937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9">
       <c r="B155" s="9">
         <v>8367</v>
       </c>
@@ -5831,7 +5963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9">
       <c r="B156" s="9">
         <v>8375</v>
       </c>
@@ -5857,7 +5989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9">
       <c r="B157" s="9">
         <v>8376</v>
       </c>
@@ -5883,7 +6015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9">
       <c r="B158" s="9">
         <v>8376</v>
       </c>
@@ -5909,7 +6041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9">
       <c r="B159" s="9">
         <v>8385</v>
       </c>
@@ -5935,7 +6067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9">
       <c r="B160" s="9">
         <v>8392</v>
       </c>
@@ -5961,7 +6093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9">
       <c r="B161" s="9">
         <v>8402</v>
       </c>
@@ -5987,7 +6119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9">
       <c r="B162" s="9">
         <v>8403</v>
       </c>
@@ -6013,7 +6145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9">
       <c r="B163" s="9">
         <v>8404</v>
       </c>
@@ -6039,7 +6171,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9">
       <c r="B164" s="9">
         <v>8406</v>
       </c>
@@ -6065,7 +6197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9">
       <c r="B165" s="9">
         <v>8414</v>
       </c>
@@ -6091,7 +6223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9">
       <c r="B166" s="9">
         <v>8417</v>
       </c>
@@ -6117,7 +6249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9">
       <c r="B167" s="9">
         <v>8418</v>
       </c>
@@ -6143,7 +6275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9">
       <c r="B168" s="9">
         <v>8422</v>
       </c>
@@ -6169,7 +6301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9">
       <c r="B169" s="9">
         <v>8425</v>
       </c>
@@ -6195,7 +6327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9">
       <c r="B170" s="9">
         <v>8428</v>
       </c>
@@ -6221,7 +6353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9">
       <c r="B171" s="9">
         <v>8429</v>
       </c>
@@ -6247,7 +6379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9">
       <c r="B172" s="9">
         <v>8431</v>
       </c>
@@ -6273,7 +6405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9">
       <c r="B173" s="9">
         <v>8433</v>
       </c>
@@ -6299,7 +6431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9">
       <c r="B174" s="9">
         <v>8436</v>
       </c>
@@ -6325,7 +6457,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9">
       <c r="B175" s="9">
         <v>8441</v>
       </c>
@@ -6351,7 +6483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9">
       <c r="B176" s="9">
         <v>8442</v>
       </c>
@@ -6377,7 +6509,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9">
       <c r="B177" s="9">
         <v>8446</v>
       </c>
@@ -6403,7 +6535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9">
       <c r="B178" s="9">
         <v>8447</v>
       </c>
@@ -6429,7 +6561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9">
       <c r="B179" s="9">
         <v>8448</v>
       </c>
@@ -6455,7 +6587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9">
       <c r="B180" s="9">
         <v>8451</v>
       </c>
@@ -6481,7 +6613,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9">
       <c r="B181" s="9">
         <v>8455</v>
       </c>
@@ -6507,7 +6639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9">
       <c r="B182" s="9">
         <v>8463</v>
       </c>
@@ -6533,7 +6665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9">
       <c r="B183" s="9">
         <v>8464</v>
       </c>
@@ -6559,7 +6691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9">
       <c r="B184" s="9">
         <v>8471</v>
       </c>
@@ -6585,7 +6717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9">
       <c r="B185" s="9">
         <v>8474</v>
       </c>
@@ -6611,7 +6743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9">
       <c r="B186" s="9">
         <v>8479</v>
       </c>
@@ -6637,7 +6769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9">
       <c r="B187" s="9">
         <v>8483</v>
       </c>
@@ -6663,7 +6795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9">
       <c r="B188" s="9">
         <v>8486</v>
       </c>
@@ -6689,7 +6821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9">
       <c r="B189" s="9">
         <v>8487</v>
       </c>
@@ -6715,7 +6847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9">
       <c r="B190" s="9">
         <v>8488</v>
       </c>
@@ -6741,7 +6873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9">
       <c r="B191" s="9">
         <v>8489</v>
       </c>
@@ -6767,7 +6899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9">
       <c r="B192" s="9">
         <v>8490</v>
       </c>
@@ -6793,7 +6925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9">
       <c r="B193" s="9">
         <v>8492</v>
       </c>
@@ -6819,7 +6951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9">
       <c r="B194" s="9">
         <v>8497</v>
       </c>
@@ -6845,7 +6977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9">
       <c r="B195" s="9">
         <v>8497</v>
       </c>
@@ -6871,7 +7003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9">
       <c r="B196" s="9">
         <v>8498</v>
       </c>
@@ -6897,7 +7029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9">
       <c r="B197" s="9">
         <v>8501</v>
       </c>
@@ -6923,7 +7055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9">
       <c r="B198" s="9">
         <v>8504</v>
       </c>
@@ -6949,7 +7081,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9">
       <c r="B199" s="9">
         <v>8505</v>
       </c>
@@ -6975,7 +7107,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9">
       <c r="B200" s="9">
         <v>8506</v>
       </c>
@@ -7001,7 +7133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9">
       <c r="B201" s="9">
         <v>8507</v>
       </c>
@@ -7027,7 +7159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9">
       <c r="B202" s="9">
         <v>8509</v>
       </c>
@@ -7053,7 +7185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9">
       <c r="B203" s="9">
         <v>8510</v>
       </c>
@@ -7079,7 +7211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9">
       <c r="B204" s="9">
         <v>8512</v>
       </c>
@@ -7105,7 +7237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9">
       <c r="B205" s="9">
         <v>8512</v>
       </c>
@@ -7131,7 +7263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9">
       <c r="B206" s="9">
         <v>8517</v>
       </c>
@@ -7157,7 +7289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9">
       <c r="B207" s="9">
         <v>8518</v>
       </c>
@@ -7183,7 +7315,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9">
       <c r="B208" s="9">
         <v>8522</v>
       </c>
@@ -7209,7 +7341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9">
       <c r="B209" s="9">
         <v>8533</v>
       </c>
@@ -7235,7 +7367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9">
       <c r="B210" s="9">
         <v>8541</v>
       </c>
@@ -7261,7 +7393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9">
       <c r="B211" s="9">
         <v>8542</v>
       </c>
@@ -7287,7 +7419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9">
       <c r="B212" s="9">
         <v>8543</v>
       </c>
@@ -7313,7 +7445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9">
       <c r="B213" s="9">
         <v>8544</v>
       </c>
@@ -7339,7 +7471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9">
       <c r="B214" s="9">
         <v>8545</v>
       </c>
@@ -7365,7 +7497,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9">
       <c r="B215" s="9">
         <v>8545</v>
       </c>
@@ -7391,7 +7523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9">
       <c r="B216" s="9">
         <v>8561</v>
       </c>
@@ -7417,7 +7549,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9">
       <c r="B217" s="9">
         <v>8561</v>
       </c>
@@ -7443,7 +7575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9">
       <c r="B218" s="9">
         <v>8562</v>
       </c>
@@ -7469,7 +7601,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9">
       <c r="B219" s="9">
         <v>8562</v>
       </c>
@@ -7495,7 +7627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9">
       <c r="B220" s="9">
         <v>8563</v>
       </c>
@@ -7521,7 +7653,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9">
       <c r="B221" s="9">
         <v>8563</v>
       </c>
@@ -7547,7 +7679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9">
       <c r="B222" s="9">
         <v>8565</v>
       </c>
@@ -7573,7 +7705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9">
       <c r="B223" s="9">
         <v>8566</v>
       </c>
@@ -7599,7 +7731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9">
       <c r="B224" s="9">
         <v>8567</v>
       </c>
@@ -7625,7 +7757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9">
       <c r="B225" s="9">
         <v>8568</v>
       </c>
@@ -7651,7 +7783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9">
       <c r="B226" s="9">
         <v>8571</v>
       </c>
@@ -7677,7 +7809,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9">
       <c r="B227" s="9">
         <v>8572</v>
       </c>
@@ -7703,7 +7835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9">
       <c r="B228" s="9">
         <v>8574</v>
       </c>
@@ -7729,7 +7861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9">
       <c r="B229" s="9">
         <v>8576</v>
       </c>
@@ -7755,7 +7887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9">
       <c r="B230" s="9">
         <v>8577</v>
       </c>
@@ -7781,7 +7913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9">
       <c r="B231" s="9">
         <v>8578</v>
       </c>
@@ -7807,7 +7939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9">
       <c r="B232" s="9">
         <v>8586</v>
       </c>
@@ -7833,7 +7965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9">
       <c r="B233" s="9">
         <v>8606</v>
       </c>
@@ -7859,7 +7991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9">
       <c r="B234" s="9">
         <v>8611</v>
       </c>
@@ -7885,7 +8017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9">
       <c r="B235" s="9">
         <v>8612</v>
       </c>
@@ -7911,7 +8043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9">
       <c r="B236" s="9">
         <v>8641</v>
       </c>
@@ -7937,7 +8069,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9">
       <c r="B237" s="9">
         <v>8642</v>
       </c>
@@ -7963,7 +8095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9">
       <c r="B238" s="9">
         <v>8657</v>
       </c>
@@ -7989,7 +8121,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9">
       <c r="B239" s="9">
         <v>8658</v>
       </c>
@@ -8015,7 +8147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9">
       <c r="B240" s="9">
         <v>8659</v>
       </c>
@@ -8041,7 +8173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9">
       <c r="B241" s="9">
         <v>8660</v>
       </c>
@@ -8067,7 +8199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9">
       <c r="B242" s="9">
         <v>8681</v>
       </c>
@@ -8093,7 +8225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9">
       <c r="B243" s="9">
         <v>8681</v>
       </c>
@@ -8119,7 +8251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9">
       <c r="B244" s="9">
         <v>8682</v>
       </c>
@@ -8145,7 +8277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9">
       <c r="B245" s="9">
         <v>8682</v>
       </c>
@@ -8171,7 +8303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9">
       <c r="B246" s="9">
         <v>8683</v>
       </c>
@@ -8197,7 +8329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9">
       <c r="B247" s="9">
         <v>8684</v>
       </c>
@@ -8234,27 +8366,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8295,48 +8427,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="9">
-        <v>381</v>
+        <v>8134</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="10">
-        <v>42819.079861111109</v>
+        <v>303</v>
+      </c>
+      <c r="E2" s="11">
+        <v>42820.107638888891</v>
       </c>
       <c r="F2" s="11">
-        <v>42819.079861111109</v>
+        <v>42820.107638888891</v>
       </c>
       <c r="G2" s="11">
-        <v>42819.138888888891</v>
+        <v>42820.173611111109</v>
       </c>
       <c r="H2" s="10">
-        <v>42819.496527777781</v>
+        <v>42820</v>
       </c>
       <c r="I2" s="11">
-        <v>42819.496527777781</v>
+        <v>42820.148611111108</v>
       </c>
       <c r="J2" s="11">
-        <v>42819.555555555555</v>
+        <v>42820.174305555556</v>
       </c>
       <c r="K2" s="9">
-        <v>600</v>
+        <v>118</v>
       </c>
       <c r="L2" s="9">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="M2" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="9">
         <v>382</v>
       </c>
@@ -8377,7 +8509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="9">
         <v>806</v>
       </c>
@@ -8418,7 +8550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="9">
         <v>810</v>
       </c>
@@ -8459,7 +8591,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="9">
         <v>815</v>
       </c>
@@ -8500,7 +8632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="9">
         <v>819</v>
       </c>
@@ -8541,7 +8673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="9">
         <v>820</v>
       </c>
@@ -8582,7 +8714,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="9">
         <v>821</v>
       </c>
@@ -8623,7 +8755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="9">
         <v>822</v>
       </c>
@@ -8664,7 +8796,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="9">
         <v>833</v>
       </c>
@@ -8705,7 +8837,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="9">
         <v>835</v>
       </c>
@@ -8746,7 +8878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="9">
         <v>836</v>
       </c>
@@ -8787,7 +8919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="9">
         <v>839</v>
       </c>
@@ -8828,7 +8960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="9">
         <v>840</v>
       </c>
@@ -8869,7 +9001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="9">
         <v>847</v>
       </c>
@@ -8910,7 +9042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="9">
         <v>847</v>
       </c>
@@ -8951,7 +9083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="9">
         <v>848</v>
       </c>
@@ -8992,7 +9124,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="9">
         <v>848</v>
       </c>
@@ -9033,7 +9165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="9">
         <v>849</v>
       </c>
@@ -9074,7 +9206,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="9">
         <v>850</v>
       </c>
@@ -9115,7 +9247,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="9">
         <v>851</v>
       </c>
@@ -9156,7 +9288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="9">
         <v>851</v>
       </c>
@@ -9197,7 +9329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="9">
         <v>852</v>
       </c>
@@ -9238,7 +9370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="9">
         <v>853</v>
       </c>
@@ -9279,7 +9411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="9">
         <v>854</v>
       </c>
@@ -9320,7 +9452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="9">
         <v>865</v>
       </c>
@@ -9361,7 +9493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="9">
         <v>866</v>
       </c>
@@ -9402,7 +9534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="9">
         <v>867</v>
       </c>
@@ -9443,7 +9575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="9">
         <v>867</v>
       </c>
@@ -9484,7 +9616,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="9">
         <v>873</v>
       </c>
@@ -9525,7 +9657,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="9">
         <v>873</v>
       </c>
@@ -9566,7 +9698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="9">
         <v>874</v>
       </c>
@@ -9607,7 +9739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="9">
         <v>874</v>
       </c>
@@ -9648,7 +9780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="9">
         <v>876</v>
       </c>
@@ -9689,7 +9821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="9">
         <v>876</v>
       </c>
@@ -9730,7 +9862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="9">
         <v>878</v>
       </c>
@@ -9771,7 +9903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="9">
         <v>879</v>
       </c>
@@ -9812,7 +9944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="9">
         <v>880</v>
       </c>
@@ -9853,7 +9985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="9">
         <v>881</v>
       </c>
@@ -9894,7 +10026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="9">
         <v>882</v>
       </c>
@@ -9935,7 +10067,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="9">
         <v>887</v>
       </c>
@@ -9976,7 +10108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="9">
         <v>888</v>
       </c>
@@ -10017,7 +10149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="9">
         <v>891</v>
       </c>
@@ -10058,7 +10190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="9">
         <v>898</v>
       </c>
@@ -10099,7 +10231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="9">
         <v>8016</v>
       </c>
@@ -10140,7 +10272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="9">
         <v>8017</v>
       </c>
@@ -10181,7 +10313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="9">
         <v>8018</v>
       </c>
@@ -10222,7 +10354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="9">
         <v>8019</v>
       </c>
@@ -10263,7 +10395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="9">
         <v>8020</v>
       </c>
@@ -10304,7 +10436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" s="9">
         <v>8021</v>
       </c>
@@ -10345,7 +10477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="9">
         <v>8029</v>
       </c>
@@ -10386,7 +10518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="9">
         <v>8029</v>
       </c>
@@ -10427,7 +10559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="9">
         <v>8030</v>
       </c>
@@ -10468,7 +10600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="9">
         <v>8033</v>
       </c>
@@ -10509,7 +10641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="9">
         <v>8034</v>
       </c>
@@ -10550,7 +10682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="9">
         <v>8036</v>
       </c>
@@ -10591,7 +10723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="9">
         <v>8046</v>
       </c>
@@ -10632,7 +10764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="9">
         <v>8046</v>
       </c>
@@ -10673,7 +10805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="9">
         <v>8046</v>
       </c>
@@ -10714,7 +10846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="9">
         <v>8049</v>
       </c>
@@ -10755,7 +10887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="9">
         <v>8053</v>
       </c>
@@ -10796,7 +10928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="9">
         <v>8056</v>
       </c>
@@ -10837,7 +10969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="9">
         <v>8060</v>
       </c>
@@ -10878,7 +11010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65" s="9">
         <v>8062</v>
       </c>
@@ -10919,7 +11051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66" s="9">
         <v>8067</v>
       </c>
@@ -10960,7 +11092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" s="9">
         <v>8068</v>
       </c>
@@ -11001,7 +11133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68" s="9">
         <v>8076</v>
       </c>
@@ -11042,7 +11174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" s="9">
         <v>8076</v>
       </c>
@@ -11083,7 +11215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70" s="9">
         <v>8079</v>
       </c>
@@ -11124,7 +11256,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71" s="9">
         <v>8080</v>
       </c>
@@ -11165,7 +11297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72" s="9">
         <v>8080</v>
       </c>
@@ -11206,7 +11338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73" s="9">
         <v>8082</v>
       </c>
@@ -11247,7 +11379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74" s="9">
         <v>8093</v>
       </c>
@@ -11288,7 +11420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75" s="9">
         <v>8094</v>
       </c>
@@ -11329,7 +11461,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76" s="9">
         <v>8101</v>
       </c>
@@ -11370,7 +11502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77" s="9">
         <v>8105</v>
       </c>
@@ -11411,7 +11543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78" s="9">
         <v>8113</v>
       </c>
@@ -11452,7 +11584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79" s="9">
         <v>8114</v>
       </c>
@@ -11493,7 +11625,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80" s="9">
         <v>8116</v>
       </c>
@@ -11534,7 +11666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81" s="9">
         <v>8117</v>
       </c>
@@ -11575,7 +11707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82" s="9">
         <v>8118</v>
       </c>
@@ -11616,7 +11748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83" s="9">
         <v>8119</v>
       </c>
@@ -11657,7 +11789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84" s="9">
         <v>8120</v>
       </c>
@@ -11698,7 +11830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" s="9">
         <v>8124</v>
       </c>
@@ -11739,7 +11871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" s="9">
         <v>8125</v>
       </c>
@@ -11780,7 +11912,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87" s="9">
         <v>8132</v>
       </c>
@@ -11821,7 +11953,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88" s="9">
         <v>8134</v>
       </c>
@@ -11862,7 +11994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89" s="9">
         <v>8135</v>
       </c>
@@ -11903,7 +12035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90" s="9">
         <v>8136</v>
       </c>
@@ -11944,7 +12076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91" s="9">
         <v>8137</v>
       </c>
@@ -11985,7 +12117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" s="9">
         <v>8138</v>
       </c>
@@ -12026,7 +12158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93" s="9">
         <v>8139</v>
       </c>
@@ -12067,7 +12199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94" s="9">
         <v>8140</v>
       </c>
@@ -12108,7 +12240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" s="9">
         <v>8140</v>
       </c>
@@ -12149,7 +12281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" s="9">
         <v>8141</v>
       </c>
@@ -12190,7 +12322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97" s="9">
         <v>8142</v>
       </c>
@@ -12231,7 +12363,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98" s="9">
         <v>8155</v>
       </c>
@@ -12272,7 +12404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" s="9">
         <v>8156</v>
       </c>
@@ -12313,7 +12445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100" s="9">
         <v>8157</v>
       </c>
@@ -12354,7 +12486,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" s="9">
         <v>8158</v>
       </c>
@@ -12395,7 +12527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102" s="9">
         <v>8159</v>
       </c>
@@ -12436,7 +12568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103" s="9">
         <v>8159</v>
       </c>
@@ -12477,7 +12609,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104" s="9">
         <v>8159</v>
       </c>
@@ -12518,7 +12650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105" s="9">
         <v>8160</v>
       </c>
@@ -12559,7 +12691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106" s="9">
         <v>8162</v>
       </c>
@@ -12600,7 +12732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107" s="9">
         <v>8165</v>
       </c>
@@ -12641,7 +12773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108" s="9">
         <v>8166</v>
       </c>
@@ -12682,7 +12814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109" s="9">
         <v>8169</v>
       </c>
@@ -12723,7 +12855,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110" s="9">
         <v>8170</v>
       </c>
@@ -12764,7 +12896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111" s="9">
         <v>8172</v>
       </c>
@@ -12805,7 +12937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112" s="9">
         <v>8172</v>
       </c>
@@ -12846,7 +12978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113" s="9">
         <v>8183</v>
       </c>
@@ -12887,7 +13019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" s="9">
         <v>8186</v>
       </c>
@@ -12928,7 +13060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" s="9">
         <v>8186</v>
       </c>
@@ -12969,7 +13101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" s="9">
         <v>8191</v>
       </c>
@@ -13010,7 +13142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" s="9">
         <v>8206</v>
       </c>
@@ -13051,7 +13183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="9">
         <v>8208</v>
       </c>
@@ -13092,7 +13224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" s="9">
         <v>8208</v>
       </c>
@@ -13133,7 +13265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" s="9">
         <v>8209</v>
       </c>
@@ -13174,7 +13306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" s="9">
         <v>8210</v>
       </c>
@@ -13215,7 +13347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" s="9">
         <v>8218</v>
       </c>
@@ -13256,7 +13388,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123" s="9">
         <v>8226</v>
       </c>
@@ -13297,7 +13429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" s="9">
         <v>8233</v>
       </c>
@@ -13338,7 +13470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" s="9">
         <v>8233</v>
       </c>
@@ -13379,7 +13511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" s="9">
         <v>8246</v>
       </c>
@@ -13420,7 +13552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="9">
         <v>8247</v>
       </c>
@@ -13461,7 +13593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="9">
         <v>8248</v>
       </c>
@@ -13502,7 +13634,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="9">
         <v>8249</v>
       </c>
@@ -13543,7 +13675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="9">
         <v>8250</v>
       </c>
@@ -13584,7 +13716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="9">
         <v>8254</v>
       </c>
@@ -13625,7 +13757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="9">
         <v>8269</v>
       </c>
@@ -13666,7 +13798,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="9">
         <v>8270</v>
       </c>
@@ -13707,7 +13839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="9">
         <v>8270</v>
       </c>
@@ -13748,7 +13880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="9">
         <v>8276</v>
       </c>
@@ -13789,7 +13921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="9">
         <v>8278</v>
       </c>
@@ -13830,7 +13962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="9">
         <v>8288</v>
       </c>
@@ -13871,7 +14003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="9">
         <v>8296</v>
       </c>
@@ -13912,7 +14044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" s="9">
         <v>8302</v>
       </c>
@@ -13953,7 +14085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" s="9">
         <v>8305</v>
       </c>
@@ -13994,7 +14126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="9">
         <v>8307</v>
       </c>
@@ -14035,7 +14167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="9">
         <v>8308</v>
       </c>
@@ -14076,7 +14208,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="9">
         <v>8317</v>
       </c>
@@ -14117,7 +14249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="9">
         <v>8318</v>
       </c>
@@ -14158,7 +14290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="9">
         <v>8322</v>
       </c>
@@ -14199,7 +14331,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="9">
         <v>8324</v>
       </c>
@@ -14240,7 +14372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="9">
         <v>8326</v>
       </c>
@@ -14281,7 +14413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="9">
         <v>8329</v>
       </c>
@@ -14322,7 +14454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" s="9">
         <v>8330</v>
       </c>
@@ -14363,7 +14495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="9">
         <v>8334</v>
       </c>
@@ -14404,7 +14536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151" s="9">
         <v>8337</v>
       </c>
@@ -14445,7 +14577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152" s="9">
         <v>8338</v>
       </c>
@@ -14486,7 +14618,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153" s="9">
         <v>8340</v>
       </c>
@@ -14527,7 +14659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154" s="9">
         <v>8341</v>
       </c>
@@ -14568,7 +14700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155" s="9">
         <v>8344</v>
       </c>
@@ -14609,7 +14741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156" s="9">
         <v>8347</v>
       </c>
@@ -14650,7 +14782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157" s="9">
         <v>8348</v>
       </c>
@@ -14691,7 +14823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158" s="9">
         <v>8359</v>
       </c>
@@ -14732,7 +14864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159" s="9">
         <v>8360</v>
       </c>
@@ -14773,7 +14905,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160" s="9">
         <v>8368</v>
       </c>
@@ -14814,7 +14946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161" s="9">
         <v>8368</v>
       </c>
@@ -14855,7 +14987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162" s="9">
         <v>8375</v>
       </c>
@@ -14896,7 +15028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163" s="9">
         <v>8376</v>
       </c>
@@ -14937,7 +15069,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164" s="9">
         <v>8386</v>
       </c>
@@ -14978,7 +15110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165" s="9">
         <v>8391</v>
       </c>
@@ -15019,7 +15151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166" s="9">
         <v>8392</v>
       </c>
@@ -15060,7 +15192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167" s="9">
         <v>8394</v>
       </c>
@@ -15101,7 +15233,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168" s="9">
         <v>8401</v>
       </c>
@@ -15142,7 +15274,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169" s="9">
         <v>8402</v>
       </c>
@@ -15183,7 +15315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170" s="9">
         <v>8404</v>
       </c>
@@ -15224,7 +15356,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171" s="9">
         <v>8405</v>
       </c>
@@ -15265,7 +15397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172" s="9">
         <v>8406</v>
       </c>
@@ -15306,7 +15438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" s="9">
         <v>8408</v>
       </c>
@@ -15347,7 +15479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174" s="9">
         <v>8416</v>
       </c>
@@ -15388,7 +15520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" s="9">
         <v>8420</v>
       </c>
@@ -15429,7 +15561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176" s="9">
         <v>8421</v>
       </c>
@@ -15470,7 +15602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" s="9">
         <v>8426</v>
       </c>
@@ -15511,7 +15643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178" s="9">
         <v>8427</v>
       </c>
@@ -15552,7 +15684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179" s="9">
         <v>8428</v>
       </c>
@@ -15593,7 +15725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180" s="9">
         <v>8429</v>
       </c>
@@ -15634,7 +15766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" s="9">
         <v>8430</v>
       </c>
@@ -15675,7 +15807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182" s="9">
         <v>8431</v>
       </c>
@@ -15716,7 +15848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183" s="9">
         <v>8432</v>
       </c>
@@ -15757,7 +15889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184" s="9">
         <v>8432</v>
       </c>
@@ -15798,7 +15930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185" s="9">
         <v>8434</v>
       </c>
@@ -15839,7 +15971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186" s="9">
         <v>8435</v>
       </c>
@@ -15880,7 +16012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187" s="9">
         <v>8436</v>
       </c>
@@ -15921,7 +16053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188" s="9">
         <v>8439</v>
       </c>
@@ -15962,7 +16094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13">
       <c r="A189" s="9">
         <v>8440</v>
       </c>
@@ -16003,7 +16135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190" s="9">
         <v>8442</v>
       </c>
@@ -16044,7 +16176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191" s="9">
         <v>8445</v>
       </c>
@@ -16085,7 +16217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192" s="9">
         <v>8446</v>
       </c>
@@ -16126,7 +16258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13">
       <c r="A193" s="9">
         <v>8447</v>
       </c>
@@ -16167,7 +16299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13">
       <c r="A194" s="9">
         <v>8451</v>
       </c>
@@ -16208,7 +16340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13">
       <c r="A195" s="9">
         <v>8452</v>
       </c>
@@ -16249,7 +16381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13">
       <c r="A196" s="9">
         <v>8452</v>
       </c>
@@ -16290,7 +16422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197" s="9">
         <v>8454</v>
       </c>
@@ -16331,7 +16463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198" s="9">
         <v>8454</v>
       </c>
@@ -16372,7 +16504,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13">
       <c r="A199" s="9">
         <v>8456</v>
       </c>
@@ -16413,7 +16545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200" s="9">
         <v>8460</v>
       </c>
@@ -16454,7 +16586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13">
       <c r="A201" s="9">
         <v>8464</v>
       </c>
@@ -16495,7 +16627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202" s="9">
         <v>8469</v>
       </c>
@@ -16536,7 +16668,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13">
       <c r="A203" s="9">
         <v>8473</v>
       </c>
@@ -16577,7 +16709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204" s="9">
         <v>8480</v>
       </c>
@@ -16618,7 +16750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13">
       <c r="A205" s="9">
         <v>8488</v>
       </c>
@@ -16659,7 +16791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206" s="9">
         <v>8502</v>
       </c>
@@ -16700,7 +16832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13">
       <c r="A207" s="9">
         <v>8503</v>
       </c>
@@ -16741,7 +16873,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13">
       <c r="A208" s="9">
         <v>8505</v>
       </c>
@@ -16782,7 +16914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209" s="9">
         <v>8508</v>
       </c>
@@ -16823,7 +16955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210" s="9">
         <v>8511</v>
       </c>
@@ -16864,7 +16996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13">
       <c r="A211" s="9">
         <v>8517</v>
       </c>
@@ -16905,7 +17037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212" s="9">
         <v>8521</v>
       </c>
@@ -16946,7 +17078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13">
       <c r="A213" s="9">
         <v>8534</v>
       </c>
@@ -16987,7 +17119,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214" s="9">
         <v>8534</v>
       </c>
@@ -17028,7 +17160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215" s="9">
         <v>8534</v>
       </c>
@@ -17069,7 +17201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13">
       <c r="A216" s="9">
         <v>8536</v>
       </c>
@@ -17110,7 +17242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13">
       <c r="A217" s="9">
         <v>8542</v>
       </c>
@@ -17151,7 +17283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218" s="9">
         <v>8546</v>
       </c>
@@ -17192,7 +17324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13">
       <c r="A219" s="9">
         <v>8561</v>
       </c>
@@ -17233,7 +17365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13">
       <c r="A220" s="9">
         <v>8562</v>
       </c>
@@ -17274,7 +17406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13">
       <c r="A221" s="9">
         <v>8562</v>
       </c>
@@ -17315,7 +17447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13">
       <c r="A222" s="9">
         <v>8564</v>
       </c>
@@ -17356,7 +17488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13">
       <c r="A223" s="9">
         <v>8564</v>
       </c>
@@ -17397,7 +17529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13">
       <c r="A224" s="9">
         <v>8566</v>
       </c>
@@ -17438,7 +17570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13">
       <c r="A225" s="9">
         <v>8568</v>
       </c>
@@ -17479,7 +17611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13">
       <c r="A226" s="9">
         <v>8572</v>
       </c>
@@ -17520,7 +17652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13">
       <c r="A227" s="9">
         <v>8573</v>
       </c>
@@ -17561,7 +17693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13">
       <c r="A228" s="9">
         <v>8575</v>
       </c>
@@ -17602,7 +17734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13">
       <c r="A229" s="9">
         <v>8584</v>
       </c>
@@ -17643,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13">
       <c r="A230" s="9">
         <v>8585</v>
       </c>
@@ -17684,7 +17816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13">
       <c r="A231" s="9">
         <v>8586</v>
       </c>
@@ -17725,7 +17857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13">
       <c r="A232" s="9">
         <v>8611</v>
       </c>
@@ -17766,7 +17898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13">
       <c r="A233" s="9">
         <v>8642</v>
       </c>
@@ -17807,7 +17939,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13">
       <c r="A234" s="9">
         <v>8642</v>
       </c>
@@ -17848,7 +17980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13">
       <c r="A235" s="9">
         <v>8657</v>
       </c>
@@ -17889,7 +18021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13">
       <c r="A236" s="9">
         <v>8658</v>
       </c>
@@ -17941,23 +18073,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K429"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="2"/>
-    <col min="9" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="2"/>
+    <col min="9" max="11" width="5.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -17992,36 +18123,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>801</v>
+        <v>8561</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="H3" s="3">
-        <v>42819</v>
+        <v>42817</v>
       </c>
       <c r="I3" s="2">
-        <v>1345</v>
+        <v>730</v>
       </c>
       <c r="J3" s="2">
-        <v>2315</v>
+        <v>1015</v>
       </c>
       <c r="K3" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>802</v>
       </c>
@@ -18050,7 +18181,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>802</v>
       </c>
@@ -18079,36 +18210,36 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>805</v>
+        <v>8112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="H6" s="3">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="I6" s="2">
-        <v>1330</v>
+        <v>1015</v>
       </c>
       <c r="J6" s="2">
-        <v>140</v>
+        <v>1155</v>
       </c>
       <c r="K6" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>806</v>
       </c>
@@ -18137,7 +18268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>810</v>
       </c>
@@ -18166,7 +18297,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>815</v>
       </c>
@@ -18195,36 +18326,36 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>816</v>
+        <v>8112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="I10" s="2">
-        <v>555</v>
+        <v>1255</v>
       </c>
       <c r="J10" s="2">
-        <v>1110</v>
+        <v>1440</v>
       </c>
       <c r="K10" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>817</v>
       </c>
@@ -18253,7 +18384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>818</v>
       </c>
@@ -18282,7 +18413,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>819</v>
       </c>
@@ -18311,7 +18442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>820</v>
       </c>
@@ -18340,7 +18471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>821</v>
       </c>
@@ -18369,36 +18500,36 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>822</v>
+        <v>8123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="H16" s="3">
-        <v>42819</v>
+        <v>42817</v>
       </c>
       <c r="I16" s="2">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="J16" s="2">
-        <v>1355</v>
+        <v>650</v>
       </c>
       <c r="K16" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>833</v>
       </c>
@@ -18427,7 +18558,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>833</v>
       </c>
@@ -18456,7 +18587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>834</v>
       </c>
@@ -18485,36 +18616,36 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>835</v>
+        <v>8123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="H20" s="3">
-        <v>42819</v>
+        <v>42817</v>
       </c>
       <c r="I20" s="2">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="J20" s="2">
-        <v>925</v>
+        <v>315</v>
       </c>
       <c r="K20" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>836</v>
       </c>
@@ -18543,7 +18674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>839</v>
       </c>
@@ -18572,7 +18703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>840</v>
       </c>
@@ -18601,7 +18732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>841</v>
       </c>
@@ -18630,7 +18761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>841</v>
       </c>
@@ -18659,7 +18790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>847</v>
       </c>
@@ -18688,7 +18819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>847</v>
       </c>
@@ -18717,7 +18848,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>848</v>
       </c>
@@ -18746,7 +18877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>848</v>
       </c>
@@ -18775,7 +18906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>852</v>
       </c>
@@ -18804,7 +18935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>852</v>
       </c>
@@ -18833,7 +18964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>853</v>
       </c>
@@ -18862,7 +18993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>854</v>
       </c>
@@ -18891,7 +19022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>856</v>
       </c>
@@ -18920,7 +19051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>865</v>
       </c>
@@ -18949,7 +19080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>867</v>
       </c>
@@ -18978,7 +19109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>867</v>
       </c>
@@ -19007,7 +19138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>873</v>
       </c>
@@ -19036,7 +19167,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>874</v>
       </c>
@@ -19065,7 +19196,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>874</v>
       </c>
@@ -19094,7 +19225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>876</v>
       </c>
@@ -19123,7 +19254,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>877</v>
       </c>
@@ -19152,7 +19283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>877</v>
       </c>
@@ -19181,7 +19312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>878</v>
       </c>
@@ -19210,7 +19341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>879</v>
       </c>
@@ -19239,7 +19370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>880</v>
       </c>
@@ -19268,7 +19399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>881</v>
       </c>
@@ -19297,7 +19428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>882</v>
       </c>
@@ -19326,7 +19457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>883</v>
       </c>
@@ -19355,7 +19486,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>884</v>
       </c>
@@ -19384,7 +19515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>887</v>
       </c>
@@ -19413,7 +19544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>888</v>
       </c>
@@ -19442,7 +19573,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>891</v>
       </c>
@@ -19471,7 +19602,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>898</v>
       </c>
@@ -19500,7 +19631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>8005</v>
       </c>
@@ -19529,7 +19660,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>8015</v>
       </c>
@@ -19558,7 +19689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>8016</v>
       </c>
@@ -19587,7 +19718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>8016</v>
       </c>
@@ -19616,7 +19747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>8017</v>
       </c>
@@ -19645,7 +19776,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>8018</v>
       </c>
@@ -19674,7 +19805,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>8019</v>
       </c>
@@ -19703,7 +19834,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>8020</v>
       </c>
@@ -19732,7 +19863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>8021</v>
       </c>
@@ -19761,7 +19892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>8021</v>
       </c>
@@ -19790,7 +19921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>8025</v>
       </c>
@@ -19819,7 +19950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>8025</v>
       </c>
@@ -19848,7 +19979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>8026</v>
       </c>
@@ -19877,7 +20008,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>8026</v>
       </c>
@@ -19906,7 +20037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>8029</v>
       </c>
@@ -19935,7 +20066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>8029</v>
       </c>
@@ -19964,7 +20095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>8030</v>
       </c>
@@ -19993,7 +20124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>8030</v>
       </c>
@@ -20022,7 +20153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>8030</v>
       </c>
@@ -20051,7 +20182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>8033</v>
       </c>
@@ -20080,7 +20211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>8033</v>
       </c>
@@ -20109,7 +20240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>8034</v>
       </c>
@@ -20138,7 +20269,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>8034</v>
       </c>
@@ -20167,7 +20298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>8035</v>
       </c>
@@ -20196,7 +20327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>8035</v>
       </c>
@@ -20225,7 +20356,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>8036</v>
       </c>
@@ -20254,7 +20385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>8036</v>
       </c>
@@ -20283,7 +20414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>8036</v>
       </c>
@@ -20312,7 +20443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>8041</v>
       </c>
@@ -20341,7 +20472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>8042</v>
       </c>
@@ -20370,7 +20501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>8042</v>
       </c>
@@ -20399,7 +20530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>8044</v>
       </c>
@@ -20428,7 +20559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>8044</v>
       </c>
@@ -20457,7 +20588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>8045</v>
       </c>
@@ -20486,7 +20617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>8046</v>
       </c>
@@ -20515,7 +20646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>8046</v>
       </c>
@@ -20544,7 +20675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>8046</v>
       </c>
@@ -20573,7 +20704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>8046</v>
       </c>
@@ -20602,7 +20733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>8049</v>
       </c>
@@ -20631,7 +20762,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>8049</v>
       </c>
@@ -20660,7 +20791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>8053</v>
       </c>
@@ -20689,7 +20820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>8053</v>
       </c>
@@ -20718,7 +20849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>8054</v>
       </c>
@@ -20747,7 +20878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>8054</v>
       </c>
@@ -20776,7 +20907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>8059</v>
       </c>
@@ -20805,7 +20936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>8060</v>
       </c>
@@ -20834,7 +20965,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>8060</v>
       </c>
@@ -20863,7 +20994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>8061</v>
       </c>
@@ -20892,7 +21023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>8062</v>
       </c>
@@ -20921,7 +21052,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>8062</v>
       </c>
@@ -20950,7 +21081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>8067</v>
       </c>
@@ -20979,7 +21110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>8067</v>
       </c>
@@ -21008,7 +21139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>8068</v>
       </c>
@@ -21037,7 +21168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>8070</v>
       </c>
@@ -21066,7 +21197,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>8070</v>
       </c>
@@ -21095,7 +21226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>8075</v>
       </c>
@@ -21124,7 +21255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>8076</v>
       </c>
@@ -21153,7 +21284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>8076</v>
       </c>
@@ -21182,7 +21313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>8079</v>
       </c>
@@ -21211,7 +21342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>8079</v>
       </c>
@@ -21240,7 +21371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>8080</v>
       </c>
@@ -21269,7 +21400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>8080</v>
       </c>
@@ -21298,7 +21429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>8080</v>
       </c>
@@ -21327,7 +21458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>8093</v>
       </c>
@@ -21356,7 +21487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>8094</v>
       </c>
@@ -21385,7 +21516,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>8101</v>
       </c>
@@ -21414,7 +21545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>8102</v>
       </c>
@@ -21443,7 +21574,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>8102</v>
       </c>
@@ -21472,7 +21603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>8103</v>
       </c>
@@ -21501,7 +21632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>8105</v>
       </c>
@@ -21530,7 +21661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>8105</v>
       </c>
@@ -21559,7 +21690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>8108</v>
       </c>
@@ -21588,7 +21719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>8113</v>
       </c>
@@ -21617,7 +21748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>8114</v>
       </c>
@@ -21646,7 +21777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>8117</v>
       </c>
@@ -21675,7 +21806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>8118</v>
       </c>
@@ -21704,7 +21835,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>8118</v>
       </c>
@@ -21733,7 +21864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>8119</v>
       </c>
@@ -21762,7 +21893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>8120</v>
       </c>
@@ -21791,7 +21922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>8123</v>
       </c>
@@ -21820,7 +21951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>8124</v>
       </c>
@@ -21849,7 +21980,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>8124</v>
       </c>
@@ -21878,7 +22009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>8126</v>
       </c>
@@ -21907,7 +22038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>8127</v>
       </c>
@@ -21936,7 +22067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>8128</v>
       </c>
@@ -21965,7 +22096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>8132</v>
       </c>
@@ -21994,7 +22125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>8133</v>
       </c>
@@ -22023,7 +22154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>8133</v>
       </c>
@@ -22052,7 +22183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>8133</v>
       </c>
@@ -22081,7 +22212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>8134</v>
       </c>
@@ -22110,7 +22241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>8135</v>
       </c>
@@ -22139,7 +22270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>8135</v>
       </c>
@@ -22168,7 +22299,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>8135</v>
       </c>
@@ -22197,7 +22328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>8136</v>
       </c>
@@ -22226,7 +22357,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>8136</v>
       </c>
@@ -22255,7 +22386,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>8137</v>
       </c>
@@ -22284,7 +22415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>8137</v>
       </c>
@@ -22313,7 +22444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>8138</v>
       </c>
@@ -22342,7 +22473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>8138</v>
       </c>
@@ -22371,7 +22502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>8139</v>
       </c>
@@ -22400,7 +22531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>8139</v>
       </c>
@@ -22429,7 +22560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>8140</v>
       </c>
@@ -22458,7 +22589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>8140</v>
       </c>
@@ -22487,7 +22618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>8141</v>
       </c>
@@ -22516,7 +22647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>8141</v>
       </c>
@@ -22545,7 +22676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>8142</v>
       </c>
@@ -22574,7 +22705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>8142</v>
       </c>
@@ -22603,7 +22734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>8151</v>
       </c>
@@ -22632,7 +22763,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>8152</v>
       </c>
@@ -22661,7 +22792,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>8155</v>
       </c>
@@ -22690,7 +22821,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>8155</v>
       </c>
@@ -22719,7 +22850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>8156</v>
       </c>
@@ -22748,7 +22879,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>8156</v>
       </c>
@@ -22777,7 +22908,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>8156</v>
       </c>
@@ -22806,7 +22937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>8157</v>
       </c>
@@ -22835,7 +22966,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>8157</v>
       </c>
@@ -22864,7 +22995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>8158</v>
       </c>
@@ -22893,7 +23024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>8158</v>
       </c>
@@ -22922,7 +23053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>8159</v>
       </c>
@@ -22951,7 +23082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>8159</v>
       </c>
@@ -22980,7 +23111,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>8159</v>
       </c>
@@ -23009,7 +23140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>8160</v>
       </c>
@@ -23038,7 +23169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>8160</v>
       </c>
@@ -23067,7 +23198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>8162</v>
       </c>
@@ -23096,7 +23227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>8165</v>
       </c>
@@ -23125,7 +23256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>8166</v>
       </c>
@@ -23154,7 +23285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>8169</v>
       </c>
@@ -23183,7 +23314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>8172</v>
       </c>
@@ -23212,7 +23343,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>8175</v>
       </c>
@@ -23241,7 +23372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>8177</v>
       </c>
@@ -23270,7 +23401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>8178</v>
       </c>
@@ -23299,7 +23430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>8183</v>
       </c>
@@ -23328,7 +23459,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>8183</v>
       </c>
@@ -23357,7 +23488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>8184</v>
       </c>
@@ -23386,7 +23517,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>8184</v>
       </c>
@@ -23415,7 +23546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>8185</v>
       </c>
@@ -23444,7 +23575,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>8186</v>
       </c>
@@ -23473,7 +23604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>8186</v>
       </c>
@@ -23502,7 +23633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>8191</v>
       </c>
@@ -23531,7 +23662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>8205</v>
       </c>
@@ -23560,7 +23691,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>8205</v>
       </c>
@@ -23589,7 +23720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>8206</v>
       </c>
@@ -23618,7 +23749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>8206</v>
       </c>
@@ -23647,7 +23778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>8207</v>
       </c>
@@ -23676,7 +23807,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>8208</v>
       </c>
@@ -23705,7 +23836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>8208</v>
       </c>
@@ -23734,7 +23865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>8209</v>
       </c>
@@ -23763,7 +23894,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>8209</v>
       </c>
@@ -23792,7 +23923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>8210</v>
       </c>
@@ -23821,7 +23952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>8210</v>
       </c>
@@ -23850,7 +23981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>8211</v>
       </c>
@@ -23879,7 +24010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>8212</v>
       </c>
@@ -23908,7 +24039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>8212</v>
       </c>
@@ -23937,7 +24068,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>8218</v>
       </c>
@@ -23966,7 +24097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>8221</v>
       </c>
@@ -23995,7 +24126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>8222</v>
       </c>
@@ -24024,7 +24155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>8225</v>
       </c>
@@ -24053,7 +24184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>8226</v>
       </c>
@@ -24082,7 +24213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>8226</v>
       </c>
@@ -24111,7 +24242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>8226</v>
       </c>
@@ -24140,7 +24271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>8233</v>
       </c>
@@ -24169,7 +24300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>8233</v>
       </c>
@@ -24198,7 +24329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>8234</v>
       </c>
@@ -24227,7 +24358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>8234</v>
       </c>
@@ -24256,7 +24387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>8237</v>
       </c>
@@ -24285,7 +24416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>8238</v>
       </c>
@@ -24314,7 +24445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>8238</v>
       </c>
@@ -24343,7 +24474,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>8239</v>
       </c>
@@ -24372,7 +24503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>8240</v>
       </c>
@@ -24401,7 +24532,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>8240</v>
       </c>
@@ -24430,7 +24561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>8244</v>
       </c>
@@ -24459,7 +24590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>8247</v>
       </c>
@@ -24488,7 +24619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>8248</v>
       </c>
@@ -24517,7 +24648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>8249</v>
       </c>
@@ -24546,7 +24677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>8249</v>
       </c>
@@ -24575,7 +24706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>8250</v>
       </c>
@@ -24604,7 +24735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>8250</v>
       </c>
@@ -24633,7 +24764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>8251</v>
       </c>
@@ -24662,7 +24793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>8252</v>
       </c>
@@ -24691,7 +24822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>8253</v>
       </c>
@@ -24720,7 +24851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>8254</v>
       </c>
@@ -24749,7 +24880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>8254</v>
       </c>
@@ -24778,7 +24909,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>8254</v>
       </c>
@@ -24807,7 +24938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>8257</v>
       </c>
@@ -24836,7 +24967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>8258</v>
       </c>
@@ -24865,7 +24996,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>8262</v>
       </c>
@@ -24894,7 +25025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>8262</v>
       </c>
@@ -24923,7 +25054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>8269</v>
       </c>
@@ -24952,7 +25083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>8270</v>
       </c>
@@ -24981,7 +25112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>8276</v>
       </c>
@@ -25010,7 +25141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>8278</v>
       </c>
@@ -25039,7 +25170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>8288</v>
       </c>
@@ -25068,7 +25199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>8296</v>
       </c>
@@ -25097,7 +25228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>8302</v>
       </c>
@@ -25126,7 +25257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>8305</v>
       </c>
@@ -25155,7 +25286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>8308</v>
       </c>
@@ -25184,7 +25315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>8309</v>
       </c>
@@ -25213,7 +25344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>8310</v>
       </c>
@@ -25242,7 +25373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>8317</v>
       </c>
@@ -25271,7 +25402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>8318</v>
       </c>
@@ -25300,7 +25431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>8318</v>
       </c>
@@ -25329,7 +25460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>8321</v>
       </c>
@@ -25358,7 +25489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>8321</v>
       </c>
@@ -25387,7 +25518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>8322</v>
       </c>
@@ -25416,7 +25547,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>8322</v>
       </c>
@@ -25445,7 +25576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>8322</v>
       </c>
@@ -25474,7 +25605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>8322</v>
       </c>
@@ -25503,7 +25634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>8326</v>
       </c>
@@ -25532,7 +25663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>8334</v>
       </c>
@@ -25561,7 +25692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>8337</v>
       </c>
@@ -25590,7 +25721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>8338</v>
       </c>
@@ -25619,7 +25750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>8340</v>
       </c>
@@ -25648,7 +25779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>8340</v>
       </c>
@@ -25677,7 +25808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>8341</v>
       </c>
@@ -25706,7 +25837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>8343</v>
       </c>
@@ -25735,7 +25866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>8343</v>
       </c>
@@ -25764,7 +25895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>8344</v>
       </c>
@@ -25793,7 +25924,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>8344</v>
       </c>
@@ -25822,7 +25953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>8346</v>
       </c>
@@ -25851,7 +25982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>8347</v>
       </c>
@@ -25880,7 +26011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>8348</v>
       </c>
@@ -25909,7 +26040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>8359</v>
       </c>
@@ -25938,7 +26069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>8360</v>
       </c>
@@ -25967,7 +26098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>8365</v>
       </c>
@@ -25996,7 +26127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>8366</v>
       </c>
@@ -26025,7 +26156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>8368</v>
       </c>
@@ -26054,7 +26185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>8368</v>
       </c>
@@ -26083,7 +26214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>8371</v>
       </c>
@@ -26112,7 +26243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>8372</v>
       </c>
@@ -26141,7 +26272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>8375</v>
       </c>
@@ -26170,7 +26301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>8376</v>
       </c>
@@ -26199,7 +26330,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>8376</v>
       </c>
@@ -26228,7 +26359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>8377</v>
       </c>
@@ -26257,7 +26388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>8379</v>
       </c>
@@ -26286,7 +26417,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>8379</v>
       </c>
@@ -26315,7 +26446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>8380</v>
       </c>
@@ -26344,7 +26475,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>8382</v>
       </c>
@@ -26373,7 +26504,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>8382</v>
       </c>
@@ -26402,7 +26533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>8386</v>
       </c>
@@ -26431,7 +26562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>8387</v>
       </c>
@@ -26460,7 +26591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>8388</v>
       </c>
@@ -26489,7 +26620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>8390</v>
       </c>
@@ -26518,7 +26649,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>8391</v>
       </c>
@@ -26547,7 +26678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>8391</v>
       </c>
@@ -26576,7 +26707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>8392</v>
       </c>
@@ -26605,7 +26736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>8393</v>
       </c>
@@ -26634,7 +26765,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>8394</v>
       </c>
@@ -26663,7 +26794,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>8401</v>
       </c>
@@ -26692,7 +26823,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>8402</v>
       </c>
@@ -26721,7 +26852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>8403</v>
       </c>
@@ -26750,7 +26881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>8404</v>
       </c>
@@ -26779,7 +26910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>8404</v>
       </c>
@@ -26808,7 +26939,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>8405</v>
       </c>
@@ -26837,7 +26968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>8406</v>
       </c>
@@ -26866,7 +26997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>8415</v>
       </c>
@@ -26895,7 +27026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>8416</v>
       </c>
@@ -26924,7 +27055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>8418</v>
       </c>
@@ -26953,7 +27084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11">
       <c r="A312" s="2">
         <v>8420</v>
       </c>
@@ -26982,7 +27113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11">
       <c r="A313" s="2">
         <v>8420</v>
       </c>
@@ -27011,7 +27142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11">
       <c r="A314" s="2">
         <v>8421</v>
       </c>
@@ -27040,7 +27171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11">
       <c r="A315" s="2">
         <v>8422</v>
       </c>
@@ -27069,7 +27200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11">
       <c r="A316" s="2">
         <v>8426</v>
       </c>
@@ -27098,7 +27229,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11">
       <c r="A317" s="2">
         <v>8427</v>
       </c>
@@ -27127,7 +27258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11">
       <c r="A318" s="2">
         <v>8428</v>
       </c>
@@ -27156,7 +27287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11">
       <c r="A319" s="2">
         <v>8430</v>
       </c>
@@ -27185,7 +27316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11">
       <c r="A320" s="2">
         <v>8432</v>
       </c>
@@ -27214,7 +27345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11">
       <c r="A321" s="2">
         <v>8432</v>
       </c>
@@ -27243,7 +27374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11">
       <c r="A322" s="2">
         <v>8434</v>
       </c>
@@ -27272,7 +27403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11">
       <c r="A323" s="2">
         <v>8439</v>
       </c>
@@ -27301,7 +27432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11">
       <c r="A324" s="2">
         <v>8439</v>
       </c>
@@ -27330,7 +27461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11">
       <c r="A325" s="2">
         <v>8440</v>
       </c>
@@ -27359,7 +27490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11">
       <c r="A326" s="2">
         <v>8440</v>
       </c>
@@ -27388,7 +27519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11">
       <c r="A327" s="2">
         <v>8440</v>
       </c>
@@ -27417,7 +27548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11">
       <c r="A328" s="2">
         <v>8441</v>
       </c>
@@ -27446,7 +27577,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11">
       <c r="A329" s="2">
         <v>8442</v>
       </c>
@@ -27475,7 +27606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11">
       <c r="A330" s="2">
         <v>8445</v>
       </c>
@@ -27504,7 +27635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11">
       <c r="A331" s="2">
         <v>8446</v>
       </c>
@@ -27533,7 +27664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11">
       <c r="A332" s="2">
         <v>8447</v>
       </c>
@@ -27562,7 +27693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11">
       <c r="A333" s="2">
         <v>8448</v>
       </c>
@@ -27591,7 +27722,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11">
       <c r="A334" s="2">
         <v>8451</v>
       </c>
@@ -27620,7 +27751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11">
       <c r="A335" s="2">
         <v>8452</v>
       </c>
@@ -27649,7 +27780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11">
       <c r="A336" s="2">
         <v>8452</v>
       </c>
@@ -27678,7 +27809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11">
       <c r="A337" s="2">
         <v>8453</v>
       </c>
@@ -27707,7 +27838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11">
       <c r="A338" s="2">
         <v>8453</v>
       </c>
@@ -27736,7 +27867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11">
       <c r="A339" s="2">
         <v>8454</v>
       </c>
@@ -27765,7 +27896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11">
       <c r="A340" s="2">
         <v>8454</v>
       </c>
@@ -27794,7 +27925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11">
       <c r="A341" s="2">
         <v>8456</v>
       </c>
@@ -27823,7 +27954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11">
       <c r="A342" s="2">
         <v>8457</v>
       </c>
@@ -27852,7 +27983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11">
       <c r="A343" s="2">
         <v>8458</v>
       </c>
@@ -27881,7 +28012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11">
       <c r="A344" s="2">
         <v>8459</v>
       </c>
@@ -27910,7 +28041,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11">
       <c r="A345" s="2">
         <v>8459</v>
       </c>
@@ -27939,7 +28070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11">
       <c r="A346" s="2">
         <v>8460</v>
       </c>
@@ -27968,7 +28099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11">
       <c r="A347" s="2">
         <v>8460</v>
       </c>
@@ -27997,7 +28128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11">
       <c r="A348" s="2">
         <v>8461</v>
       </c>
@@ -28026,7 +28157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11">
       <c r="A349" s="2">
         <v>8461</v>
       </c>
@@ -28055,7 +28186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11">
       <c r="A350" s="2">
         <v>8462</v>
       </c>
@@ -28084,7 +28215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11">
       <c r="A351" s="2">
         <v>8462</v>
       </c>
@@ -28113,7 +28244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11">
       <c r="A352" s="2">
         <v>8464</v>
       </c>
@@ -28142,7 +28273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11">
       <c r="A353" s="2">
         <v>8465</v>
       </c>
@@ -28171,7 +28302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11">
       <c r="A354" s="2">
         <v>8466</v>
       </c>
@@ -28200,7 +28331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11">
       <c r="A355" s="2">
         <v>8469</v>
       </c>
@@ -28229,7 +28360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11">
       <c r="A356" s="2">
         <v>8469</v>
       </c>
@@ -28258,7 +28389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11">
       <c r="A357" s="2">
         <v>8470</v>
       </c>
@@ -28287,7 +28418,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11">
       <c r="A358" s="2">
         <v>8473</v>
       </c>
@@ -28316,7 +28447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11">
       <c r="A359" s="2">
         <v>8478</v>
       </c>
@@ -28345,7 +28476,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11">
       <c r="A360" s="2">
         <v>8479</v>
       </c>
@@ -28374,7 +28505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11">
       <c r="A361" s="2">
         <v>8480</v>
       </c>
@@ -28403,7 +28534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11">
       <c r="A362" s="2">
         <v>8480</v>
       </c>
@@ -28432,7 +28563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11">
       <c r="A363" s="2">
         <v>8481</v>
       </c>
@@ -28461,7 +28592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11">
       <c r="A364" s="2">
         <v>8481</v>
       </c>
@@ -28490,7 +28621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11">
       <c r="A365" s="2">
         <v>8482</v>
       </c>
@@ -28519,7 +28650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11">
       <c r="A366" s="2">
         <v>8483</v>
       </c>
@@ -28548,7 +28679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11">
       <c r="A367" s="2">
         <v>8485</v>
       </c>
@@ -28577,7 +28708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11">
       <c r="A368" s="2">
         <v>8486</v>
       </c>
@@ -28606,7 +28737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11">
       <c r="A369" s="2">
         <v>8487</v>
       </c>
@@ -28635,7 +28766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11">
       <c r="A370" s="2">
         <v>8488</v>
       </c>
@@ -28664,7 +28795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11">
       <c r="A371" s="2">
         <v>8488</v>
       </c>
@@ -28693,7 +28824,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11">
       <c r="A372" s="2">
         <v>8489</v>
       </c>
@@ -28722,7 +28853,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11">
       <c r="A373" s="2">
         <v>8492</v>
       </c>
@@ -28751,7 +28882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11">
       <c r="A374" s="2">
         <v>8498</v>
       </c>
@@ -28780,7 +28911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11">
       <c r="A375" s="2">
         <v>8502</v>
       </c>
@@ -28809,7 +28940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11">
       <c r="A376" s="2">
         <v>8503</v>
       </c>
@@ -28838,7 +28969,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11">
       <c r="A377" s="2">
         <v>8504</v>
       </c>
@@ -28867,7 +28998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11">
       <c r="A378" s="2">
         <v>8505</v>
       </c>
@@ -28896,7 +29027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11">
       <c r="A379" s="2">
         <v>8508</v>
       </c>
@@ -28925,7 +29056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11">
       <c r="A380" s="2">
         <v>8509</v>
       </c>
@@ -28954,7 +29085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11">
       <c r="A381" s="2">
         <v>8510</v>
       </c>
@@ -28983,7 +29114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11">
       <c r="A382" s="2">
         <v>8511</v>
       </c>
@@ -29012,7 +29143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11">
       <c r="A383" s="2">
         <v>8521</v>
       </c>
@@ -29041,7 +29172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11">
       <c r="A384" s="2">
         <v>8522</v>
       </c>
@@ -29070,7 +29201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11">
       <c r="A385" s="2">
         <v>8533</v>
       </c>
@@ -29099,7 +29230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11">
       <c r="A386" s="2">
         <v>8534</v>
       </c>
@@ -29128,7 +29259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11">
       <c r="A387" s="2">
         <v>8534</v>
       </c>
@@ -29157,7 +29288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11">
       <c r="A388" s="2">
         <v>8534</v>
       </c>
@@ -29186,7 +29317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11">
       <c r="A389" s="2">
         <v>8534</v>
       </c>
@@ -29215,7 +29346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11">
       <c r="A390" s="2">
         <v>8535</v>
       </c>
@@ -29244,7 +29375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11">
       <c r="A391" s="2">
         <v>8546</v>
       </c>
@@ -29273,7 +29404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11">
       <c r="A392" s="2">
         <v>8546</v>
       </c>
@@ -29302,7 +29433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11">
       <c r="A393" s="2">
         <v>8561</v>
       </c>
@@ -29331,7 +29462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11">
       <c r="A394" s="2">
         <v>8561</v>
       </c>
@@ -29360,7 +29491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11">
       <c r="A395" s="2">
         <v>8562</v>
       </c>
@@ -29389,7 +29520,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11">
       <c r="A396" s="2">
         <v>8562</v>
       </c>
@@ -29418,7 +29549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11">
       <c r="A397" s="2">
         <v>8564</v>
       </c>
@@ -29447,7 +29578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11">
       <c r="A398" s="2">
         <v>8564</v>
       </c>
@@ -29476,7 +29607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11">
       <c r="A399" s="2">
         <v>8565</v>
       </c>
@@ -29505,7 +29636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11">
       <c r="A400" s="2">
         <v>8566</v>
       </c>
@@ -29534,7 +29665,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11">
       <c r="A401" s="2">
         <v>8568</v>
       </c>
@@ -29563,7 +29694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11">
       <c r="A402" s="2">
         <v>8572</v>
       </c>
@@ -29592,7 +29723,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11">
       <c r="A403" s="2">
         <v>8573</v>
       </c>
@@ -29621,7 +29752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11">
       <c r="A404" s="2">
         <v>8575</v>
       </c>
@@ -29650,7 +29781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11">
       <c r="A405" s="2">
         <v>8578</v>
       </c>
@@ -29679,7 +29810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11">
       <c r="A406" s="2">
         <v>8585</v>
       </c>
@@ -29708,7 +29839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11">
       <c r="A407" s="2">
         <v>8586</v>
       </c>
@@ -29737,7 +29868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11">
       <c r="A408" s="2">
         <v>8601</v>
       </c>
@@ -29766,7 +29897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11">
       <c r="A409" s="2">
         <v>8602</v>
       </c>
@@ -29795,7 +29926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11">
       <c r="A410" s="2">
         <v>8609</v>
       </c>
@@ -29824,7 +29955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11">
       <c r="A411" s="2">
         <v>8610</v>
       </c>
@@ -29853,7 +29984,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11">
       <c r="A412" s="2">
         <v>8611</v>
       </c>
@@ -29882,7 +30013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11">
       <c r="A413" s="2">
         <v>8612</v>
       </c>
@@ -29911,7 +30042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11">
       <c r="A414" s="2">
         <v>8641</v>
       </c>
@@ -29940,7 +30071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11">
       <c r="A415" s="2">
         <v>8641</v>
       </c>
@@ -29969,7 +30100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11">
       <c r="A416" s="2">
         <v>8641</v>
       </c>
@@ -29998,7 +30129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11">
       <c r="A417" s="2">
         <v>8642</v>
       </c>
@@ -30027,7 +30158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11">
       <c r="A418" s="2">
         <v>8642</v>
       </c>
@@ -30056,7 +30187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11">
       <c r="A419" s="2">
         <v>8657</v>
       </c>
@@ -30085,7 +30216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11">
       <c r="A420" s="2">
         <v>8658</v>
       </c>
@@ -30114,7 +30245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11">
       <c r="A421" s="2">
         <v>8659</v>
       </c>
@@ -30143,7 +30274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11">
       <c r="A422" s="2">
         <v>8660</v>
       </c>
@@ -30172,7 +30303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11">
       <c r="A423" s="2">
         <v>8681</v>
       </c>
@@ -30201,7 +30332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11">
       <c r="A424" s="2">
         <v>8682</v>
       </c>
@@ -30230,7 +30361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11">
       <c r="A425" s="2">
         <v>8682</v>
       </c>
@@ -30259,7 +30390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11">
       <c r="A426" s="2">
         <v>8697</v>
       </c>
@@ -30288,7 +30419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11">
       <c r="A427" s="2">
         <v>8697</v>
       </c>
@@ -30317,7 +30448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11">
       <c r="A428" s="2">
         <v>8698</v>
       </c>
@@ -30346,7 +30477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11">
       <c r="A429" s="2">
         <v>8698</v>
       </c>
@@ -30393,9 +30524,9 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -30411,7 +30542,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -30462,16 +30593,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
     <col min="5" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -30491,7 +30622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>

--- a/typhoon20170613-20170324.xlsx
+++ b/typhoon20170613-20170324.xlsx
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,6 +1559,12 @@
     </xf>
     <xf numFmtId="177" fontId="7" fillId="3" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="3" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1918,7 +1924,7 @@
   <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8367,7 +8373,7 @@
   <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8427,44 +8433,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9">
+    <row r="2" spans="1:13" s="12" customFormat="1">
+      <c r="A2" s="13">
         <v>8134</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>42820.107638888891</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="15">
         <v>42820.107638888891</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="15">
         <v>42820.173611111109</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="14">
         <v>42820</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="15">
         <v>42820.148611111108</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="15">
         <v>42820.174305555556</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="13">
         <v>118</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="13">
         <v>1222</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="13">
         <v>129</v>
       </c>
     </row>
@@ -18073,8 +18079,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K429"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18123,32 +18129,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+    <row r="3" spans="1:11" s="12" customFormat="1">
+      <c r="A3" s="16">
         <v>8561</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="17">
         <v>42817</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="16">
         <v>730</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="16">
         <v>1015</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="16">
         <v>1211</v>
       </c>
     </row>
@@ -18210,32 +18218,34 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" s="12" customFormat="1">
+      <c r="A6" s="16">
         <v>8112</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="17">
         <v>42820</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="16">
         <v>1015</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="16">
         <v>1155</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="16">
         <v>1222</v>
       </c>
     </row>
@@ -18326,32 +18336,34 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" s="12" customFormat="1">
+      <c r="A10" s="16">
         <v>8112</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="17">
         <v>42820</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="16">
         <v>1255</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="16">
         <v>1440</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="16">
         <v>1223</v>
       </c>
     </row>
@@ -18500,32 +18512,34 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11" s="12" customFormat="1">
+      <c r="A16" s="16">
         <v>8123</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="17">
         <v>42817</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="16">
         <v>420</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="16">
         <v>650</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="16">
         <v>1224</v>
       </c>
     </row>
@@ -18616,32 +18630,34 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20" spans="1:11" s="12" customFormat="1">
+      <c r="A20" s="16">
         <v>8123</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="17">
         <v>42817</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="16">
         <v>125</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="16">
         <v>315</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="16">
         <v>1225</v>
       </c>
     </row>
